--- a/Excel/AdminExcel/ExchangeRateController.xlsx
+++ b/Excel/AdminExcel/ExchangeRateController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\outsource.minura\API_Testing\api-automation\Excel\AdminExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404F244-72D5-4AEA-B022-A3D7FC10CEA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB259DFB-ED17-4E0E-8BBD-A0C7706A83EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateExchangeRate" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110A6303-6C49-4831-BC6B-DCB577D705A4}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -633,7 +633,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -647,7 +647,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -675,7 +675,7 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
